--- a/doc/database.xlsx
+++ b/doc/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icecubes/Documents/git/LineLiffRewardPoints/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18925867-6863-8E45-A7A3-AD0A5B89F109}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C849B5-F889-8C4A-B7C5-6F5D156D6CB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7220" yWindow="660" windowWidth="28260" windowHeight="16880" xr2:uid="{D0786C15-BEF9-2248-AD30-D8DE82B5F0D1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{D0786C15-BEF9-2248-AD30-D8DE82B5F0D1}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="69">
   <si>
     <t>資料表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -254,27 +254,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ward</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wardSeq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wardUserno</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兌換點帳號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wardNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兌換點數數量</t>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pointExp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狀態 w待領取 e已領取   u已兌換  g轉送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardExp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可轉送 e:可轉送 d:不可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardGift</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pointCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收點代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -639,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F8910A4-0F69-6647-B8AA-9D190D531E7D}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="141" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="D26" zoomScale="141" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -741,16 +765,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -758,16 +779,13 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -775,13 +793,13 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -792,13 +810,13 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -809,13 +827,13 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -826,13 +844,13 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -840,36 +858,36 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -877,16 +895,16 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -894,16 +912,16 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -911,13 +929,13 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
         <v>6</v>
@@ -928,13 +946,13 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
         <v>6</v>
@@ -945,13 +963,13 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
         <v>6</v>
@@ -962,13 +980,13 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
         <v>6</v>
@@ -979,13 +997,13 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s">
         <v>6</v>
@@ -996,13 +1014,13 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
         <v>6</v>
@@ -1013,13 +1031,13 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E22" t="s">
         <v>6</v>
@@ -1027,36 +1045,36 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1064,16 +1082,16 @@
         <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
         <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1081,16 +1099,16 @@
         <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1098,13 +1116,13 @@
         <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="E27" t="s">
         <v>6</v>
@@ -1115,13 +1133,13 @@
         <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="E28" t="s">
         <v>6</v>
@@ -1132,13 +1150,13 @@
         <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
         <v>6</v>
@@ -1149,13 +1167,13 @@
         <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E30" t="s">
         <v>6</v>
@@ -1166,13 +1184,13 @@
         <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E31" t="s">
         <v>6</v>
@@ -1183,13 +1201,13 @@
         <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E32" t="s">
         <v>6</v>
@@ -1197,36 +1215,36 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1234,16 +1252,16 @@
         <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D35" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1251,16 +1269,16 @@
         <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="C36" t="s">
         <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="E36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1268,13 +1286,13 @@
         <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="C37" t="s">
         <v>32</v>
       </c>
       <c r="D37" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="E37" t="s">
         <v>6</v>
@@ -1285,13 +1303,13 @@
         <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="C38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D38" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="E38" t="s">
         <v>6</v>
@@ -1302,16 +1320,13 @@
         <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1319,16 +1334,13 @@
         <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1336,16 +1348,13 @@
         <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="D41" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1353,13 +1362,13 @@
         <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D42" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
         <v>6</v>
@@ -1367,50 +1376,50 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D43" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C44" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D44" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="C45" t="s">
         <v>32</v>
       </c>
       <c r="D45" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="E45" t="s">
         <v>6</v>
@@ -1418,16 +1427,16 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="C46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D46" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="E46" t="s">
         <v>6</v>
@@ -1435,103 +1444,63 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D47" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E47" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" t="s">
-        <v>57</v>
-      </c>
-      <c r="B48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C48" t="s">
-        <v>31</v>
-      </c>
-      <c r="D48" t="s">
-        <v>12</v>
-      </c>
       <c r="E48" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" t="s">
-        <v>57</v>
-      </c>
-      <c r="B49" t="s">
-        <v>23</v>
-      </c>
-      <c r="C49" t="s">
-        <v>34</v>
-      </c>
-      <c r="D49" t="s">
-        <v>13</v>
-      </c>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5">
       <c r="E49" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50" t="s">
-        <v>57</v>
-      </c>
-      <c r="B50" t="s">
-        <v>24</v>
-      </c>
-      <c r="C50" t="s">
-        <v>32</v>
-      </c>
-      <c r="D50" t="s">
-        <v>14</v>
-      </c>
+    <row r="50" spans="5:5">
       <c r="E50" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51" t="s">
-        <v>57</v>
-      </c>
-      <c r="B51" t="s">
-        <v>25</v>
-      </c>
-      <c r="C51" t="s">
-        <v>31</v>
-      </c>
-      <c r="D51" t="s">
-        <v>15</v>
-      </c>
+    <row r="51" spans="5:5">
       <c r="E51" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52" t="s">
-        <v>26</v>
-      </c>
-      <c r="C52" t="s">
-        <v>33</v>
-      </c>
-      <c r="D52" t="s">
-        <v>16</v>
-      </c>
+    <row r="52" spans="5:5">
       <c r="E52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="5:5">
+      <c r="E53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="5:5">
+      <c r="E54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="5:5">
+      <c r="E55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="5:5">
+      <c r="E56" t="s">
         <v>6</v>
       </c>
     </row>
